--- a/Bacillus_simulation_results/different_carbon_sources/simulations_Bsubtilis_different carbon sources.xlsx
+++ b/Bacillus_simulation_results/different_carbon_sources/simulations_Bsubtilis_different carbon sources.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\supplementary last\Bacillus_simulation_results\different_carbon_sources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B931FC31-BCF4-4B32-9FD9-5B42B586E423}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -75,12 +81,6 @@
     <t>Arabinose</t>
   </si>
   <si>
-    <t>Uptake rates (mmol/gDCW/h)</t>
-  </si>
-  <si>
-    <t>Products rates (mmol/gDCW/h)</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -198,11 +198,17 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Uptake rates (mmol gDCW^-1 h^-1)</t>
+  </si>
+  <si>
+    <t>Products rates (mmol gDCW^-1 h^-1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000\ _₽"/>
@@ -618,18 +624,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,26 +665,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="20">
         <v>2.1534200000000001E-3</v>
@@ -780,7 +786,7 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7">
         <v>21.001999999999999</v>
@@ -880,21 +886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -916,7 +922,7 @@
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10">
         <v>39.173400000000001</v>
@@ -950,7 +956,7 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="10">
         <v>15.1914</v>
@@ -969,7 +975,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="19">
         <v>2.2907400000000001E-4</v>
@@ -988,7 +994,7 @@
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="14">
         <v>0.62417900000000004</v>
